--- a/1.DELIVERABLE/1.10 EFFORT_LOG/Week24/BSS_EffortLog_HienNguyen_Week24.xlsx
+++ b/1.DELIVERABLE/1.10 EFFORT_LOG/Week24/BSS_EffortLog_HienNguyen_Week24.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -51,34 +51,37 @@
     <t>Training Technical</t>
   </si>
   <si>
-    <t>13/2/2017</t>
+    <t>WEEK: 24</t>
   </si>
   <si>
-    <t>Demo "View News" function</t>
+    <t>Implement "Arrange Banner" function on server</t>
   </si>
   <si>
-    <t>14/2/2017</t>
+    <t xml:space="preserve">Implement "Create Popups" function on server </t>
   </si>
   <si>
-    <t>Demo "Create Draft" function</t>
+    <t>Implement "Arrange Popups" function on server</t>
   </si>
   <si>
-    <t>Demo "Edit News" function</t>
+    <t>Research publish code to server</t>
   </si>
   <si>
-    <t>15/2/2017</t>
+    <t>13/3/2017</t>
   </si>
   <si>
-    <t>Implement "Deactivate News" function</t>
+    <t>14/3/2017</t>
   </si>
   <si>
-    <t>16/2/2017</t>
+    <t>15/3/2017</t>
   </si>
   <si>
-    <t>18/2/2017</t>
+    <t>17/3/2017</t>
   </si>
   <si>
-    <t>WEEK: 20</t>
+    <t>18/3/2017</t>
+  </si>
+  <si>
+    <t>16/3/2017</t>
   </si>
 </sst>
 </file>
@@ -206,14 +209,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,14 +536,14 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" style="3" customWidth="1"/>
@@ -552,14 +555,14 @@
     <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -583,14 +586,14 @@
     <row r="2" spans="1:27" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
+      <c r="C2" s="14" t="s">
+        <v>10</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -684,17 +687,17 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="10">
         <v>2</v>
@@ -725,23 +728,23 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="10">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H6" s="10">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -766,17 +769,17 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>3</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="10">
         <v>2</v>
@@ -807,23 +810,23 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>13</v>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>12</v>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H8" s="10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -848,23 +851,23 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>5</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>14</v>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>12</v>
+      <c r="F9" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H9" s="10">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -889,23 +892,23 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>6</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H10" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -930,23 +933,23 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="10">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H11" s="10">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
